--- a/Pre_test_by_question_formatted.xlsx
+++ b/Pre_test_by_question_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayapatel/Desktop/honours/Honours-FCI-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF02BB4-CE08-FE4E-9C73-542517107E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E340B3-2160-FC4F-AD08-145C1C87D747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14100" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="22340" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>PRE Q1</t>
   </si>
@@ -143,13 +143,103 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>POST Q1</t>
+  </si>
+  <si>
+    <t>POST Q2</t>
+  </si>
+  <si>
+    <t>POST Q3</t>
+  </si>
+  <si>
+    <t>POST Q4</t>
+  </si>
+  <si>
+    <t>POST Q5</t>
+  </si>
+  <si>
+    <t>POST Q6</t>
+  </si>
+  <si>
+    <t>POST Q7</t>
+  </si>
+  <si>
+    <t>POST Q8</t>
+  </si>
+  <si>
+    <t>POST Q9</t>
+  </si>
+  <si>
+    <t>POST Q10</t>
+  </si>
+  <si>
+    <t>POST Q11</t>
+  </si>
+  <si>
+    <t>POST Q12</t>
+  </si>
+  <si>
+    <t>POST Q13</t>
+  </si>
+  <si>
+    <t>POST Q14</t>
+  </si>
+  <si>
+    <t>POST Q15</t>
+  </si>
+  <si>
+    <t>POST Q16</t>
+  </si>
+  <si>
+    <t>POST Q17</t>
+  </si>
+  <si>
+    <t>POST Q18</t>
+  </si>
+  <si>
+    <t>POST Q19</t>
+  </si>
+  <si>
+    <t>POST Q20</t>
+  </si>
+  <si>
+    <t>POST Q21</t>
+  </si>
+  <si>
+    <t>POST Q22</t>
+  </si>
+  <si>
+    <t>POST Q23</t>
+  </si>
+  <si>
+    <t>POST Q24</t>
+  </si>
+  <si>
+    <t>POST Q25</t>
+  </si>
+  <si>
+    <t>POST Q26</t>
+  </si>
+  <si>
+    <t>POST Q27</t>
+  </si>
+  <si>
+    <t>POST Q28</t>
+  </si>
+  <si>
+    <t>POST Q29</t>
+  </si>
+  <si>
+    <t>POST Q30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +255,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -198,19 +312,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -238,46 +358,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,9 +705,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1770,20 +1850,1157 @@
         <v>0.18211350251397329</v>
       </c>
     </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="C15">
+        <v>0.29803921568627451</v>
+      </c>
+      <c r="D15">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="E15">
+        <v>0.41960784313725491</v>
+      </c>
+      <c r="F15">
+        <v>0.28235294117647058</v>
+      </c>
+      <c r="G15">
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="H15">
+        <v>0.4823529411764706</v>
+      </c>
+      <c r="I15">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="J15">
+        <v>0.31372549019607843</v>
+      </c>
+      <c r="K15">
+        <v>0.44313725490196082</v>
+      </c>
+      <c r="L15">
+        <v>0.36862745098039218</v>
+      </c>
+      <c r="M15">
+        <v>0.51764705882352946</v>
+      </c>
+      <c r="N15">
+        <v>0.29803921568627451</v>
+      </c>
+      <c r="O15">
+        <v>0.28627450980392161</v>
+      </c>
+      <c r="P15">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="Q15">
+        <v>0.46274509803921571</v>
+      </c>
+      <c r="R15">
+        <v>0.24313725490196081</v>
+      </c>
+      <c r="S15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T15">
+        <v>0.4</v>
+      </c>
+      <c r="U15">
+        <v>0.38039215686274508</v>
+      </c>
+      <c r="V15">
+        <v>0.29803921568627451</v>
+      </c>
+      <c r="W15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X15">
+        <v>0.32156862745098042</v>
+      </c>
+      <c r="Y15">
+        <v>0.45490196078431372</v>
+      </c>
+      <c r="Z15">
+        <v>0.27450980392156871</v>
+      </c>
+      <c r="AA15">
+        <v>0.21176470588235291</v>
+      </c>
+      <c r="AB15">
+        <v>0.3843137254901961</v>
+      </c>
+      <c r="AC15">
+        <v>0.4</v>
+      </c>
+      <c r="AD15">
+        <v>0.47450980392156861</v>
+      </c>
+      <c r="AE15">
+        <v>0.27843137254901962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.31496062992125978</v>
+      </c>
+      <c r="C16">
+        <v>0.24409448818897639</v>
+      </c>
+      <c r="D16">
+        <v>0.38188976377952749</v>
+      </c>
+      <c r="E16">
+        <v>0.30708661417322841</v>
+      </c>
+      <c r="F16">
+        <v>0.13779527559055119</v>
+      </c>
+      <c r="G16">
+        <v>0.64960629921259838</v>
+      </c>
+      <c r="H16">
+        <v>0.55905511811023623</v>
+      </c>
+      <c r="I16">
+        <v>0.41732283464566933</v>
+      </c>
+      <c r="J16">
+        <v>0.31496062992125978</v>
+      </c>
+      <c r="K16">
+        <v>0.44094488188976377</v>
+      </c>
+      <c r="L16">
+        <v>0.20866141732283461</v>
+      </c>
+      <c r="M16">
+        <v>0.52362204724409445</v>
+      </c>
+      <c r="N16">
+        <v>0.18503937007874019</v>
+      </c>
+      <c r="O16">
+        <v>0.24015748031496059</v>
+      </c>
+      <c r="P16">
+        <v>0.26377952755905509</v>
+      </c>
+      <c r="Q16">
+        <v>0.55905511811023623</v>
+      </c>
+      <c r="R16">
+        <v>0.1299212598425197</v>
+      </c>
+      <c r="S16">
+        <v>0.18503937007874019</v>
+      </c>
+      <c r="T16">
+        <v>0.37795275590551181</v>
+      </c>
+      <c r="U16">
+        <v>0.32283464566929132</v>
+      </c>
+      <c r="V16">
+        <v>0.2480314960629921</v>
+      </c>
+      <c r="W16">
+        <v>0.27165354330708658</v>
+      </c>
+      <c r="X16">
+        <v>0.29921259842519687</v>
+      </c>
+      <c r="Y16">
+        <v>0.49606299212598431</v>
+      </c>
+      <c r="Z16">
+        <v>0.17716535433070871</v>
+      </c>
+      <c r="AA16">
+        <v>8.6614173228346455E-2</v>
+      </c>
+      <c r="AB16">
+        <v>0.3543307086614173</v>
+      </c>
+      <c r="AC16">
+        <v>0.34251968503937008</v>
+      </c>
+      <c r="AD16">
+        <v>0.55905511811023623</v>
+      </c>
+      <c r="AE16">
+        <v>0.17322834645669291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0.64651162790697669</v>
+      </c>
+      <c r="C17">
+        <v>0.43720930232558142</v>
+      </c>
+      <c r="D17">
+        <v>0.67441860465116277</v>
+      </c>
+      <c r="E17">
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="F17">
+        <v>0.38139534883720932</v>
+      </c>
+      <c r="G17">
+        <v>0.66976744186046511</v>
+      </c>
+      <c r="H17">
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="I17">
+        <v>0.52093023255813953</v>
+      </c>
+      <c r="J17">
+        <v>0.38139534883720932</v>
+      </c>
+      <c r="K17">
+        <v>0.63255813953488371</v>
+      </c>
+      <c r="L17">
+        <v>0.44651162790697668</v>
+      </c>
+      <c r="M17">
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="N17">
+        <v>0.43720930232558142</v>
+      </c>
+      <c r="O17">
+        <v>0.47441860465116281</v>
+      </c>
+      <c r="P17">
+        <v>0.34418604651162787</v>
+      </c>
+      <c r="Q17">
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="R17">
+        <v>0.42325581395348838</v>
+      </c>
+      <c r="S17">
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="T17">
+        <v>0.51627906976744187</v>
+      </c>
+      <c r="U17">
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="V17">
+        <v>0.35813953488372091</v>
+      </c>
+      <c r="W17">
+        <v>0.44651162790697668</v>
+      </c>
+      <c r="X17">
+        <v>0.4697674418604651</v>
+      </c>
+      <c r="Y17">
+        <v>0.61860465116279073</v>
+      </c>
+      <c r="Z17">
+        <v>0.36279069767441863</v>
+      </c>
+      <c r="AA17">
+        <v>0.24651162790697681</v>
+      </c>
+      <c r="AB17">
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="AC17">
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="AD17">
+        <v>0.68372093023255809</v>
+      </c>
+      <c r="AE17">
+        <v>0.39069767441860459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C18">
+        <v>0.33691756272401441</v>
+      </c>
+      <c r="D18">
+        <v>0.44086021505376338</v>
+      </c>
+      <c r="E18">
+        <v>0.45519713261648748</v>
+      </c>
+      <c r="F18">
+        <v>0.35125448028673828</v>
+      </c>
+      <c r="G18">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="H18">
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="I18">
+        <v>0.43010752688172038</v>
+      </c>
+      <c r="J18">
+        <v>0.26881720430107531</v>
+      </c>
+      <c r="K18">
+        <v>0.49103942652329752</v>
+      </c>
+      <c r="L18">
+        <v>0.40143369175627241</v>
+      </c>
+      <c r="M18">
+        <v>0.56989247311827962</v>
+      </c>
+      <c r="N18">
+        <v>0.24372759856630821</v>
+      </c>
+      <c r="O18">
+        <v>0.24372759856630821</v>
+      </c>
+      <c r="P18">
+        <v>0.35125448028673828</v>
+      </c>
+      <c r="Q18">
+        <v>0.59856630824372759</v>
+      </c>
+      <c r="R18">
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="S18">
+        <v>0.40860215053763438</v>
+      </c>
+      <c r="T18">
+        <v>0.45878136200716851</v>
+      </c>
+      <c r="U18">
+        <v>0.47670250896057348</v>
+      </c>
+      <c r="V18">
+        <v>0.31899641577060928</v>
+      </c>
+      <c r="W18">
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="X18">
+        <v>0.33691756272401441</v>
+      </c>
+      <c r="Y18">
+        <v>0.52329749103942658</v>
+      </c>
+      <c r="Z18">
+        <v>0.21505376344086019</v>
+      </c>
+      <c r="AA18">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB18">
+        <v>0.43369175627240142</v>
+      </c>
+      <c r="AC18">
+        <v>0.40860215053763438</v>
+      </c>
+      <c r="AD18">
+        <v>0.60215053763440862</v>
+      </c>
+      <c r="AE18">
+        <v>0.1971326164874552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0.65090909090909088</v>
+      </c>
+      <c r="C19">
+        <v>0.44727272727272732</v>
+      </c>
+      <c r="D19">
+        <v>0.66909090909090907</v>
+      </c>
+      <c r="E19">
+        <v>0.54909090909090907</v>
+      </c>
+      <c r="F19">
+        <v>0.35636363636363638</v>
+      </c>
+      <c r="G19">
+        <v>0.73818181818181816</v>
+      </c>
+      <c r="H19">
+        <v>0.69090909090909092</v>
+      </c>
+      <c r="I19">
+        <v>0.58909090909090911</v>
+      </c>
+      <c r="J19">
+        <v>0.49454545454545462</v>
+      </c>
+      <c r="K19">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="L19">
+        <v>0.46181818181818179</v>
+      </c>
+      <c r="M19">
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="N19">
+        <v>0.47636363636363638</v>
+      </c>
+      <c r="O19">
+        <v>0.44363636363636372</v>
+      </c>
+      <c r="P19">
+        <v>0.35272727272727272</v>
+      </c>
+      <c r="Q19">
+        <v>0.69454545454545458</v>
+      </c>
+      <c r="R19">
+        <v>0.38545454545454538</v>
+      </c>
+      <c r="S19">
+        <v>0.45090909090909093</v>
+      </c>
+      <c r="T19">
+        <v>0.59272727272727277</v>
+      </c>
+      <c r="U19">
+        <v>0.55636363636363639</v>
+      </c>
+      <c r="V19">
+        <v>0.39636363636363642</v>
+      </c>
+      <c r="W19">
+        <v>0.41454545454545461</v>
+      </c>
+      <c r="X19">
+        <v>0.48727272727272719</v>
+      </c>
+      <c r="Y19">
+        <v>0.63272727272727269</v>
+      </c>
+      <c r="Z19">
+        <v>0.35636363636363638</v>
+      </c>
+      <c r="AA19">
+        <v>0.2072727272727273</v>
+      </c>
+      <c r="AB19">
+        <v>0.59636363636363632</v>
+      </c>
+      <c r="AC19">
+        <v>0.52</v>
+      </c>
+      <c r="AD19">
+        <v>0.67636363636363639</v>
+      </c>
+      <c r="AE19">
+        <v>0.37818181818181817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.53264604810996563</v>
+      </c>
+      <c r="C20">
+        <v>0.43642611683848798</v>
+      </c>
+      <c r="D20">
+        <v>0.4845360824742268</v>
+      </c>
+      <c r="E20">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="F20">
+        <v>0.41580756013745712</v>
+      </c>
+      <c r="G20">
+        <v>0.75945017182130581</v>
+      </c>
+      <c r="H20">
+        <v>0.60137457044673537</v>
+      </c>
+      <c r="I20">
+        <v>0.46735395189003442</v>
+      </c>
+      <c r="J20">
+        <v>0.32646048109965642</v>
+      </c>
+      <c r="K20">
+        <v>0.44329896907216487</v>
+      </c>
+      <c r="L20">
+        <v>0.36769759450171818</v>
+      </c>
+      <c r="M20">
+        <v>0.63917525773195871</v>
+      </c>
+      <c r="N20">
+        <v>0.35395189003436428</v>
+      </c>
+      <c r="O20">
+        <v>0.26804123711340211</v>
+      </c>
+      <c r="P20">
+        <v>0.4329896907216495</v>
+      </c>
+      <c r="Q20">
+        <v>0.68041237113402064</v>
+      </c>
+      <c r="R20">
+        <v>0.2611683848797251</v>
+      </c>
+      <c r="S20">
+        <v>0.47079037800687279</v>
+      </c>
+      <c r="T20">
+        <v>0.45017182130584188</v>
+      </c>
+      <c r="U20">
+        <v>0.52920962199312716</v>
+      </c>
+      <c r="V20">
+        <v>0.3436426116838488</v>
+      </c>
+      <c r="W20">
+        <v>0.35738831615120281</v>
+      </c>
+      <c r="X20">
+        <v>0.3436426116838488</v>
+      </c>
+      <c r="Y20">
+        <v>0.51546391752577314</v>
+      </c>
+      <c r="Z20">
+        <v>0.27491408934707912</v>
+      </c>
+      <c r="AA20">
+        <v>0.1065292096219931</v>
+      </c>
+      <c r="AB20">
+        <v>0.4845360824742268</v>
+      </c>
+      <c r="AC20">
+        <v>0.54982817869415812</v>
+      </c>
+      <c r="AD20">
+        <v>0.73195876288659789</v>
+      </c>
+      <c r="AE20">
+        <v>0.28178694158075601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>0.40397350993377479</v>
+      </c>
+      <c r="C21">
+        <v>0.29139072847682118</v>
+      </c>
+      <c r="D21">
+        <v>0.41390728476821192</v>
+      </c>
+      <c r="E21">
+        <v>0.41390728476821192</v>
+      </c>
+      <c r="F21">
+        <v>0.26158940397350988</v>
+      </c>
+      <c r="G21">
+        <v>0.49668874172185429</v>
+      </c>
+      <c r="H21">
+        <v>0.46357615894039728</v>
+      </c>
+      <c r="I21">
+        <v>0.39072847682119211</v>
+      </c>
+      <c r="J21">
+        <v>0.29801324503311261</v>
+      </c>
+      <c r="K21">
+        <v>0.4370860927152318</v>
+      </c>
+      <c r="L21">
+        <v>0.31788079470198682</v>
+      </c>
+      <c r="M21">
+        <v>0.52649006622516559</v>
+      </c>
+      <c r="N21">
+        <v>0.37086092715231789</v>
+      </c>
+      <c r="O21">
+        <v>0.33774834437086088</v>
+      </c>
+      <c r="P21">
+        <v>0.26821192052980131</v>
+      </c>
+      <c r="Q21">
+        <v>0.48013245033112578</v>
+      </c>
+      <c r="R21">
+        <v>0.29139072847682118</v>
+      </c>
+      <c r="S21">
+        <v>0.31125827814569529</v>
+      </c>
+      <c r="T21">
+        <v>0.44370860927152322</v>
+      </c>
+      <c r="U21">
+        <v>0.41721854304635758</v>
+      </c>
+      <c r="V21">
+        <v>0.3443708609271523</v>
+      </c>
+      <c r="W21">
+        <v>0.38079470198675502</v>
+      </c>
+      <c r="X21">
+        <v>0.34768211920529801</v>
+      </c>
+      <c r="Y21">
+        <v>0.44370860927152322</v>
+      </c>
+      <c r="Z21">
+        <v>0.29470198675496689</v>
+      </c>
+      <c r="AA21">
+        <v>0.22185430463576161</v>
+      </c>
+      <c r="AB21">
+        <v>0.41059602649006621</v>
+      </c>
+      <c r="AC21">
+        <v>0.4370860927152318</v>
+      </c>
+      <c r="AD21">
+        <v>0.51986754966887416</v>
+      </c>
+      <c r="AE21">
+        <v>0.29801324503311261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>0.38560411311053983</v>
+      </c>
+      <c r="C22">
+        <v>0.21079691516709509</v>
+      </c>
+      <c r="D22">
+        <v>0.30848329048843193</v>
+      </c>
+      <c r="E22">
+        <v>0.55784061696658094</v>
+      </c>
+      <c r="F22">
+        <v>0.32133676092544988</v>
+      </c>
+      <c r="G22">
+        <v>0.58354755784061696</v>
+      </c>
+      <c r="H22">
+        <v>0.50899742930591263</v>
+      </c>
+      <c r="I22">
+        <v>0.38046272493573258</v>
+      </c>
+      <c r="J22">
+        <v>0.27763496143958871</v>
+      </c>
+      <c r="K22">
+        <v>0.4241645244215938</v>
+      </c>
+      <c r="L22">
+        <v>0.36503856041131111</v>
+      </c>
+      <c r="M22">
+        <v>0.56298200514138819</v>
+      </c>
+      <c r="N22">
+        <v>0.31362467866323912</v>
+      </c>
+      <c r="O22">
+        <v>0.22879177377892029</v>
+      </c>
+      <c r="P22">
+        <v>0.39331619537275059</v>
+      </c>
+      <c r="Q22">
+        <v>0.59125964010282772</v>
+      </c>
+      <c r="R22">
+        <v>0.25449871465295631</v>
+      </c>
+      <c r="S22">
+        <v>0.39074550128534702</v>
+      </c>
+      <c r="T22">
+        <v>0.4652956298200514</v>
+      </c>
+      <c r="U22">
+        <v>0.51156812339331614</v>
+      </c>
+      <c r="V22">
+        <v>0.24935732647814909</v>
+      </c>
+      <c r="W22">
+        <v>0.33419023136246789</v>
+      </c>
+      <c r="X22">
+        <v>0.32133676092544988</v>
+      </c>
+      <c r="Y22">
+        <v>0.50642673521850901</v>
+      </c>
+      <c r="Z22">
+        <v>0.27249357326478152</v>
+      </c>
+      <c r="AA22">
+        <v>0.21593830334190231</v>
+      </c>
+      <c r="AB22">
+        <v>0.39331619537275059</v>
+      </c>
+      <c r="AC22">
+        <v>0.52185089974293064</v>
+      </c>
+      <c r="AD22">
+        <v>0.60925449871465298</v>
+      </c>
+      <c r="AE22">
+        <v>0.25964010282776351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C23">
+        <v>0.33854166666666669</v>
+      </c>
+      <c r="D23">
+        <v>0.56770833333333337</v>
+      </c>
+      <c r="E23">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F23">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="G23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H23">
+        <v>0.640625</v>
+      </c>
+      <c r="I23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J23">
+        <v>0.43229166666666669</v>
+      </c>
+      <c r="K23">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L23">
+        <v>0.28125</v>
+      </c>
+      <c r="M23">
+        <v>0.71875</v>
+      </c>
+      <c r="N23">
+        <v>0.3125</v>
+      </c>
+      <c r="O23">
+        <v>0.4375</v>
+      </c>
+      <c r="P23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Q23">
+        <v>0.59895833333333337</v>
+      </c>
+      <c r="R23">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="S23">
+        <v>0.375</v>
+      </c>
+      <c r="T23">
+        <v>0.55729166666666663</v>
+      </c>
+      <c r="U23">
+        <v>0.52604166666666663</v>
+      </c>
+      <c r="V23">
+        <v>0.40104166666666669</v>
+      </c>
+      <c r="W23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="X23">
+        <v>0.546875</v>
+      </c>
+      <c r="Y23">
+        <v>0.63020833333333337</v>
+      </c>
+      <c r="Z23">
+        <v>0.31770833333333331</v>
+      </c>
+      <c r="AA23">
+        <v>0.19791666666666671</v>
+      </c>
+      <c r="AB23">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="AC23">
+        <v>0.47395833333333331</v>
+      </c>
+      <c r="AD23">
+        <v>0.609375</v>
+      </c>
+      <c r="AE23">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0.50778816199376942</v>
+      </c>
+      <c r="C24">
+        <v>0.3115264797507788</v>
+      </c>
+      <c r="D24">
+        <v>0.43925233644859812</v>
+      </c>
+      <c r="E24">
+        <v>0.71962616822429903</v>
+      </c>
+      <c r="F24">
+        <v>0.26479750778816202</v>
+      </c>
+      <c r="G24">
+        <v>0.77881619937694702</v>
+      </c>
+      <c r="H24">
+        <v>0.65420560747663548</v>
+      </c>
+      <c r="I24">
+        <v>0.43302180685358249</v>
+      </c>
+      <c r="J24">
+        <v>0.31464174454828658</v>
+      </c>
+      <c r="K24">
+        <v>0.52336448598130836</v>
+      </c>
+      <c r="L24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M24">
+        <v>0.64174454828660432</v>
+      </c>
+      <c r="N24">
+        <v>0.26479750778816202</v>
+      </c>
+      <c r="O24">
+        <v>0.38006230529595009</v>
+      </c>
+      <c r="P24">
+        <v>0.55763239875389403</v>
+      </c>
+      <c r="Q24">
+        <v>0.73520249221183798</v>
+      </c>
+      <c r="R24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S24">
+        <v>0.38317757009345788</v>
+      </c>
+      <c r="T24">
+        <v>0.60124610591900307</v>
+      </c>
+      <c r="U24">
+        <v>0.58566978193146413</v>
+      </c>
+      <c r="V24">
+        <v>0.29595015576323991</v>
+      </c>
+      <c r="W24">
+        <v>0.3364485981308411</v>
+      </c>
+      <c r="X24">
+        <v>0.33021806853582553</v>
+      </c>
+      <c r="Y24">
+        <v>0.61370716510903423</v>
+      </c>
+      <c r="Z24">
+        <v>0.3115264797507788</v>
+      </c>
+      <c r="AA24">
+        <v>0.21183800623052959</v>
+      </c>
+      <c r="AB24">
+        <v>0.41121495327102803</v>
+      </c>
+      <c r="AC24">
+        <v>0.61682242990654201</v>
+      </c>
+      <c r="AD24">
+        <v>0.73831775700934577</v>
+      </c>
+      <c r="AE24">
+        <v>0.22429906542056069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>0.50684368251491341</v>
+      </c>
+      <c r="C25">
+        <v>0.33522152030974239</v>
+      </c>
+      <c r="D25">
+        <v>0.47919115259705192</v>
+      </c>
+      <c r="E25">
+        <v>0.4863155637945244</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.3074776248412518</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.66286278062331894</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.58651619328696047</v>
+      </c>
+      <c r="I25">
+        <v>0.46829400323044312</v>
+      </c>
+      <c r="J25">
+        <v>0.34224862265883882</v>
+      </c>
+      <c r="K25">
+        <v>0.50136240780705077</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.35522526527330073</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.61797960569938537</v>
+      </c>
+      <c r="N25">
+        <v>0.32561141266586241</v>
+      </c>
+      <c r="O25">
+        <v>0.33403582175318502</v>
+      </c>
+      <c r="P25">
+        <v>0.35224308657961229</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.60520400567494526</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.27865417559254579</v>
+      </c>
+      <c r="S25">
+        <v>0.37972277654134279</v>
+      </c>
+      <c r="T25">
+        <v>0.48634542933904817</v>
+      </c>
+      <c r="U25">
+        <v>0.48641402197708983</v>
+      </c>
+      <c r="V25">
+        <v>0.32539329202862899</v>
+      </c>
+      <c r="W25">
+        <v>0.36880378497348709</v>
+      </c>
+      <c r="X25">
+        <v>0.38044935180838058</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.54351091282979613</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0.28572277181821332</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0.18173508358983681</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.45785859526127759</v>
+      </c>
+      <c r="AC25">
+        <v>0.47590398629924557</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0.6204573594541879</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0.27730778496224501</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A12:AE12">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:AE12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
